--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -175,13 +175,40 @@
     <t xml:space="preserve">Faire une liste de partenariat précise et courte et supprimer les annuaire</t>
   </si>
   <si>
-    <t xml:space="preserve">Vérifier la taille des images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAIRE LES CONTRASTE </t>
+    <t xml:space="preserve">Vitesse chargement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La taille des images n’est pas adapter à la taille des container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cela allourdi la taille du site web et ce dernier est plus long à charger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redimensionné les images à la bonne et les compresser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les contraste texte/couleur ne respectent pas les exigences du niveau AA du WCAG 2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les personnes malvoyante risque d’avoir du mal a saisir le texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer la couleur du texte de sorte a ce que le site respecte les exigences AA du WCAG 2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDN WEB DOCS</t>
   </si>
   <si>
     <t xml:space="preserve">PASSER LE HTML ET CSS VERIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre filter sombre sur la section pour que le contraste soit bon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enlever le bouton contact de la section 1</t>
   </si>
 </sst>
 </file>
@@ -252,7 +279,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +296,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF666666"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -306,7 +339,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,6 +377,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -426,16 +463,16 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.32421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.34765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.57"/>
@@ -730,38 +767,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
